--- a/spreadsheets/Galio.xlsx
+++ b/spreadsheets/Galio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantan/projects/champs.gg/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD96BC38-C255-8146-9562-38C530CFA520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090A2583-C4C3-B34C-ABD9-2DEC915B3939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t>Champion</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Galio</t>
   </si>
   <si>
-    <t>Aatrox</t>
-  </si>
-  <si>
     <t>Hey! Thank you so much for contributing.</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
   </si>
   <si>
     <t>T Z</t>
-  </si>
-  <si>
-    <t>Fuck this guy</t>
   </si>
   <si>
     <t>Ahri</t>
@@ -404,7 +398,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,26 +409,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -457,15 +450,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -778,113 +769,113 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1883,7 +1874,7 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1906,36 +1897,37 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="8">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="1"/>
@@ -1944,10 +1936,10 @@
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="1"/>
@@ -1956,10 +1948,10 @@
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="1"/>
@@ -1968,10 +1960,10 @@
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="1"/>
@@ -1980,10 +1972,10 @@
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="4">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="1"/>
@@ -1992,23 +1984,23 @@
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" s="4">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -2016,22 +2008,21 @@
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="4">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2039,10 +2030,10 @@
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="4">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="6">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2050,10 +2041,10 @@
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="8">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2061,10 +2052,10 @@
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="3">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2072,10 +2063,10 @@
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="4">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2083,10 +2074,10 @@
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>5</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2094,10 +2085,10 @@
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="4">
-        <v>5</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2105,10 +2096,10 @@
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="4">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="3">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2116,109 +2107,109 @@
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="4">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>53</v>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="4">
-        <v>2</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>115</v>
+      <c r="B21" s="6">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="8">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4" t="s">
         <v>57</v>
+      </c>
+      <c r="B22" s="5">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="7">
-        <v>7</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>116</v>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="4">
-        <v>3</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>62</v>
+      <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="4">
-        <v>5</v>
-      </c>
-      <c r="C25" s="4" t="s">
         <v>65</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="4">
-        <v>3</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="4">
-        <v>5</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="B28" s="4">
-        <v>6</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="4">
-        <v>3</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="3">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2226,98 +2217,98 @@
       <c r="A30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="4">
-        <v>5</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>77</v>
+      <c r="B30" s="3">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="3">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B31" s="4">
-        <v>6</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="4">
-        <v>7</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>80</v>
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B33" s="4">
-        <v>3</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="4">
-        <v>5</v>
-      </c>
-      <c r="C34" s="4" t="s">
         <v>83</v>
+      </c>
+      <c r="B34" s="5">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="7">
-        <v>7</v>
-      </c>
-      <c r="C35" s="4" t="s">
         <v>86</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="4">
-        <v>5</v>
-      </c>
-      <c r="C36" s="4" t="s">
         <v>90</v>
+      </c>
+      <c r="B36" s="3">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="4">
-        <v>6</v>
-      </c>
-      <c r="C37" s="4" t="s">
         <v>94</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="4">
-        <v>4</v>
-      </c>
-      <c r="C38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2325,32 +2316,32 @@
       <c r="A39" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="4">
-        <v>2</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>101</v>
+      <c r="B39" s="3">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="3">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B40" s="4">
-        <v>4</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="4">
-        <v>6</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="5">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2358,68 +2349,58 @@
       <c r="A42" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="7">
-        <v>3</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>106</v>
+      <c r="B42" s="3">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" s="4">
-        <v>4</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>121</v>
+        <v>106</v>
+      </c>
+      <c r="B43" s="5">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="7">
-        <v>5</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
+      </c>
+      <c r="B44" s="5">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B45" s="7">
-        <v>6</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="4">
-        <v>3</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="B46" s="3">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="4">
-        <v>4</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
